--- a/策划/表格配置/Z-作物.xlsx
+++ b/策划/表格配置/Z-作物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB7A9AF-19A1-4FC3-9F17-49EF1D78D867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7767C0CB-4CD4-46E6-A139-661ED937F1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1031,31 +1031,31 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>5</v>

--- a/策划/表格配置/Z-作物.xlsx
+++ b/策划/表格配置/Z-作物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7767C0CB-4CD4-46E6-A139-661ED937F1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8629E7C-08D6-429E-81E4-33220891F224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,13 +1122,13 @@
         <v>33</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>35</v>

--- a/策划/表格配置/Z-作物.xlsx
+++ b/策划/表格配置/Z-作物.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8629E7C-08D6-429E-81E4-33220891F224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF71B3-587B-4DF1-8098-606C7FFA62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>作物ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,34 @@
   </si>
   <si>
     <t>crops._5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._47,crops._48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +980,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1145,19 +1173,45 @@
       <c r="A5" s="3">
         <v>10002</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">

--- a/策划/表格配置/Z-作物.xlsx
+++ b/策划/表格配置/Z-作物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF71B3-587B-4DF1-8098-606C7FFA62DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE17589-F9B4-486D-A77B-598905311DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>陈吱吱</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{B80F5CEA-1E73-46F9-ACAA-B8FBD6B509DF}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B80F5CEA-1E73-46F9-ACAA-B8FBD6B509DF}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FE1A5E1A-0FF5-42AF-A6AB-DE3FD66CAEC8}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{FE1A5E1A-0FF5-42AF-A6AB-DE3FD66CAEC8}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>作物ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,48 @@
   </si>
   <si>
     <t>甜瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要GameObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isGameObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒花</t>
+  </si>
+  <si>
+    <t>果实ItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruitItemID</t>
+  </si>
+  <si>
+    <t>crops._256,crops._257</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crops._262</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +399,47 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -693,22 +775,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5095AD61-0AD6-4DAB-B3BE-30A3E33806E6}" name="表1" displayName="表1" ref="A3:N19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B047348E-E176-4CA7-855B-85833FA1BEF8}" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{2ACBF19F-49D4-4939-B2D7-542FA7818181}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3EDF4975-E7F0-4CD1-A42A-2077218892C4}" name="Stage1Tile" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{55247687-DE9A-4397-9D05-6998B2672BD5}" name="Stage1Days" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{0FBEEDD0-1FA4-4742-B694-10FBFF8767C9}" name="Stage2Tile" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{57EAC4B1-AD8D-4693-B4C3-D4C49D648D83}" name="Stage2Days" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{742C1B6E-5FE1-42F2-8CB4-6BF3AF7E1F00}" name="Stage3Tile" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{ECA9AD92-F33B-4638-858F-1069377D9430}" name="Stage3Days" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{C1856AD4-48B3-41D4-97A7-1A3F665A9771}" name="Stage4Tile" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{5BEA736C-429D-4894-802A-1A68B30C0627}" name="Stage4Days" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{1EEBC7FC-D7A7-4435-BFA1-D9323C36419E}" name="Stage5Tile" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{722A95D3-051B-477A-9FEA-138EBAFC037E}" name="Stage5Days" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{61D20298-ADC8-42CF-8108-9E56F4A62E41}" name="Stage6Tile" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{D2408DBD-F81E-4F9C-93B3-5B238E1E0B72}" name="Stage6Days" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5095AD61-0AD6-4DAB-B3BE-30A3E33806E6}" name="表1" displayName="表1" ref="A3:P18" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{B047348E-E176-4CA7-855B-85833FA1BEF8}" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2ACBF19F-49D4-4939-B2D7-542FA7818181}" name="Name" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{A16F970D-CB44-41D9-9386-F65F12CCECC7}" name="isGameObject" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{1651FA0F-D168-4C4F-81B2-5FA3F884AB17}" name="fruitItemID" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3EDF4975-E7F0-4CD1-A42A-2077218892C4}" name="Stage1Tile" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{55247687-DE9A-4397-9D05-6998B2672BD5}" name="Stage1Days" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{0FBEEDD0-1FA4-4742-B694-10FBFF8767C9}" name="Stage2Tile" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{57EAC4B1-AD8D-4693-B4C3-D4C49D648D83}" name="Stage2Days" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{742C1B6E-5FE1-42F2-8CB4-6BF3AF7E1F00}" name="Stage3Tile" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{ECA9AD92-F33B-4638-858F-1069377D9430}" name="Stage3Days" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{C1856AD4-48B3-41D4-97A7-1A3F665A9771}" name="Stage4Tile" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{5BEA736C-429D-4894-802A-1A68B30C0627}" name="Stage4Days" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{1EEBC7FC-D7A7-4435-BFA1-D9323C36419E}" name="Stage5Tile" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{722A95D3-051B-477A-9FEA-138EBAFC037E}" name="Stage5Days" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{61D20298-ADC8-42CF-8108-9E56F4A62E41}" name="Stage6Tile" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{D2408DBD-F81E-4F9C-93B3-5B238E1E0B72}" name="Stage6Days" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,21 +1061,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="3" max="4" width="19.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="14.75" customWidth="1"/>
@@ -999,9 +1082,11 @@
     <col min="12" max="12" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="13.375" customWidth="1"/>
     <col min="14" max="14" width="14.75" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,43 +1094,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1088,8 +1179,14 @@
       <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1097,162 +1194,207 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10006</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>-1</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10002</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10007</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="3">
+      <c r="J5" s="3">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="3">
+      <c r="L5" s="3">
         <v>9</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="3">
+      <c r="N5" s="3">
         <v>11</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="3">
+      <c r="P5" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10003</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10008</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="3">
+        <v>10</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1263,23 +1405,28 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1294,8 +1441,10 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1310,8 +1459,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1326,8 +1477,10 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1342,8 +1495,10 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1358,8 +1513,10 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1374,8 +1531,10 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1390,8 +1549,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1406,8 +1567,10 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1422,22 +1585,8 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/策划/表格配置/Z-作物.xlsx
+++ b/策划/表格配置/Z-作物.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAFproject\策划\表格配置\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B48DE1-3692-4746-8867-0E6932838F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crops" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>陈吱吱</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>陈吱吱:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -41,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>陈吱吱:</t>
@@ -56,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -235,14 +245,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,171 +258,38 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,194 +302,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -626,251 +311,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -890,280 +333,232 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
       <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -1173,29 +568,32 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:P18" totalsRowShown="0">
   <tableColumns count="16">
-    <tableColumn id="1" name="ID" dataDxfId="0"/>
-    <tableColumn id="2" name="Name" dataDxfId="1"/>
-    <tableColumn id="15" name="hasCollider"/>
-    <tableColumn id="16" name="fruitItemID" dataDxfId="2"/>
-    <tableColumn id="3" name="Stage1Tile" dataDxfId="3"/>
-    <tableColumn id="4" name="Stage1Days" dataDxfId="4"/>
-    <tableColumn id="5" name="Stage2Tile" dataDxfId="5"/>
-    <tableColumn id="6" name="Stage2Days" dataDxfId="6"/>
-    <tableColumn id="7" name="Stage3Tile" dataDxfId="7"/>
-    <tableColumn id="8" name="Stage3Days" dataDxfId="8"/>
-    <tableColumn id="9" name="Stage4Tile" dataDxfId="9"/>
-    <tableColumn id="10" name="Stage4Days" dataDxfId="10"/>
-    <tableColumn id="11" name="Stage5Tile" dataDxfId="11"/>
-    <tableColumn id="12" name="Stage5Days" dataDxfId="12"/>
-    <tableColumn id="13" name="Stage6Tile" dataDxfId="13"/>
-    <tableColumn id="14" name="Stage6Days" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="hasCollider"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="fruitItemID" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Stage1Tile" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Stage1Days" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Stage2Tile" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Stage2Days" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Stage3Tile" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Stage3Days" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Stage4Tile" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Stage4Days" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Stage5Tile" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Stage5Days" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Stage6Tile" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Stage6Days" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1453,19 +851,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="3" width="12" style="2" customWidth="1"/>
@@ -1484,7 +882,7 @@
     <col min="16" max="16" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:16">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1584,7 +982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:16">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1634,7 +1032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:16">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>10001</v>
       </c>
@@ -1676,7 +1074,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" ht="16.5" spans="1:16">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>10002</v>
       </c>
@@ -1726,7 +1124,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>10003</v>
       </c>
@@ -1776,7 +1174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1791,7 +1189,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1806,7 +1204,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1824,7 +1222,7 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" ht="16.5" spans="1:16">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1842,7 +1240,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" ht="16.5" spans="1:16">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1860,7 +1258,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1878,7 +1276,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" ht="16.5" spans="1:16">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1896,7 +1294,7 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1914,7 +1312,7 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" ht="16.5" spans="1:16">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1932,7 +1330,7 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" ht="16.5" spans="1:16">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1950,7 +1348,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" ht="16.5" spans="1:16">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1968,7 +1366,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" ht="16.5" spans="1:16">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1987,12 +1385,12 @@
       <c r="P18" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>